--- a/authors.xlsx
+++ b/authors.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3640" uniqueCount="1615">
   <si>
-    <t>ID</t>
+    <t>id</t>
   </si>
   <si>
     <t>last_name</t>
@@ -4887,14 +4887,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4916,14 +4917,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -4933,10 +4926,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4944,6 +4937,22 @@
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4962,19 +4971,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4991,46 +5029,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5063,18 +5063,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -5087,7 +5075,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5099,19 +5159,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5129,49 +5195,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5183,67 +5225,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5254,15 +5242,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5277,6 +5256,63 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5298,54 +5334,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -5357,16 +5345,16 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5381,124 +5369,124 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5849,8 +5837,8 @@
   <sheetPr/>
   <dimension ref="A1:L458"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="A146" sqref="A146"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="61.5" customHeight="1"/>
@@ -6952,7 +6940,6 @@
       <c r="J28" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K28" s="1"/>
       <c r="L28" s="1" t="s">
         <v>19</v>
       </c>
@@ -8790,7 +8777,6 @@
       <c r="H76" s="1">
         <v>2</v>
       </c>
-      <c r="I76" s="1"/>
       <c r="J76" s="1" t="s">
         <v>344</v>
       </c>
@@ -10073,7 +10059,6 @@
       <c r="H109" s="1">
         <v>1</v>
       </c>
-      <c r="I109" s="1"/>
       <c r="J109" s="1" t="s">
         <v>427</v>
       </c>
@@ -10266,7 +10251,6 @@
       <c r="H114" s="1">
         <v>6</v>
       </c>
-      <c r="I114" s="1"/>
       <c r="J114" s="1" t="s">
         <v>453</v>
       </c>
@@ -14286,7 +14270,6 @@
       <c r="H218" s="1">
         <v>6</v>
       </c>
-      <c r="I218" s="1"/>
       <c r="J218" s="1" t="s">
         <v>793</v>
       </c>
@@ -14362,7 +14345,6 @@
       <c r="H220" s="1">
         <v>1</v>
       </c>
-      <c r="I220" s="1"/>
       <c r="J220" s="1" t="s">
         <v>803</v>
       </c>
@@ -18578,7 +18560,6 @@
       <c r="H330" s="1">
         <v>0</v>
       </c>
-      <c r="I330" s="1"/>
       <c r="J330" s="1" t="s">
         <v>1176</v>
       </c>
@@ -18962,7 +18943,6 @@
       <c r="H340" s="1">
         <v>7</v>
       </c>
-      <c r="I340" s="1"/>
       <c r="J340" s="1" t="s">
         <v>1212</v>
       </c>
@@ -19044,7 +19024,6 @@
       <c r="J342" s="1" t="s">
         <v>1223</v>
       </c>
-      <c r="K342" s="1"/>
       <c r="L342" s="1" t="s">
         <v>19</v>
       </c>

--- a/authors.xlsx
+++ b/authors.xlsx
@@ -4702,7 +4702,7 @@
     <t>Maggian</t>
   </si>
   <si>
-    <t>Vale</t>
+    <t>Valeria</t>
   </si>
   <si>
     <t>2019Gal079: Cà Foscari University of Venice</t>
@@ -4869,10 +4869,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* \-_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* \-??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* \-??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* \-_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -4889,23 +4889,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4919,8 +4920,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4941,29 +4980,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -4973,7 +4989,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4987,9 +5003,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5012,22 +5027,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5066,7 +5066,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5078,7 +5078,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5090,7 +5114,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5102,13 +5138,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5126,25 +5180,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5156,49 +5216,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5210,31 +5228,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5245,6 +5245,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5259,6 +5289,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5287,36 +5328,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -5330,166 +5345,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5840,8 +5840,8 @@
   <sheetPr/>
   <dimension ref="A1:L458"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" topLeftCell="A450" workbookViewId="0">
-      <selection activeCell="B457" sqref="B457"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" topLeftCell="A442" workbookViewId="0">
+      <selection activeCell="C442" sqref="C442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="61.5" customHeight="1"/>
@@ -6562,7 +6562,7 @@
     </row>
     <row r="19" customHeight="1" spans="1:12">
       <c r="A19" s="1" t="str">
-        <f>_xlfn.CONCAT(C19," ",B19)</f>
+        <f t="shared" si="1"/>
         <v>Alex Nikolsko-Rzhevskyy</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -22851,7 +22851,7 @@
     <row r="442" customHeight="1" spans="1:12">
       <c r="A442" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Vale Maggian</v>
+        <v>Valeria Maggian</v>
       </c>
       <c r="B442" s="3" t="s">
         <v>1561</v>
